--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Por\Desktop\proj\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C10C17-69FB-4371-BB4F-31E2C2EFB97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29145" yWindow="1455" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,73 +28,73 @@
     <t>score</t>
   </si>
   <si>
+    <t>Alameen</t>
+  </si>
+  <si>
+    <t>Apinun</t>
+  </si>
+  <si>
+    <t>Arim</t>
+  </si>
+  <si>
+    <t>Chanchanok</t>
+  </si>
+  <si>
     <t>Chareef</t>
   </si>
   <si>
     <t>Jantapa</t>
   </si>
   <si>
+    <t>Jetnipat</t>
+  </si>
+  <si>
+    <t>Kanda</t>
+  </si>
+  <si>
     <t>Ketsiree</t>
   </si>
   <si>
+    <t>Nanfa</t>
+  </si>
+  <si>
     <t>Napadsakorn</t>
   </si>
   <si>
+    <t>Naslimin</t>
+  </si>
+  <si>
+    <t>Natthapon</t>
+  </si>
+  <si>
+    <t>Natthawut</t>
+  </si>
+  <si>
+    <t>Nattida</t>
+  </si>
+  <si>
+    <t>Nichakan</t>
+  </si>
+  <si>
+    <t>Pajaree</t>
+  </si>
+  <si>
+    <t>Panjira</t>
+  </si>
+  <si>
+    <t>Phimwadi</t>
+  </si>
+  <si>
+    <t>Phiraphon</t>
+  </si>
+  <si>
+    <t>Santi</t>
+  </si>
+  <si>
     <t>Santiphap</t>
   </si>
   <si>
     <t>Sarawadee</t>
-  </si>
-  <si>
-    <t>Alameen</t>
-  </si>
-  <si>
-    <t>Apinun</t>
-  </si>
-  <si>
-    <t>Arim</t>
-  </si>
-  <si>
-    <t>Chanchanok</t>
-  </si>
-  <si>
-    <t>Jetnipat</t>
-  </si>
-  <si>
-    <t>Kanda</t>
-  </si>
-  <si>
-    <t>Nanfa</t>
-  </si>
-  <si>
-    <t>Naslimin</t>
-  </si>
-  <si>
-    <t>Natthapon</t>
-  </si>
-  <si>
-    <t>Natthawut</t>
-  </si>
-  <si>
-    <t>Nattida</t>
-  </si>
-  <si>
-    <t>Nichakan</t>
-  </si>
-  <si>
-    <t>Pajaree</t>
-  </si>
-  <si>
-    <t>Panjira</t>
-  </si>
-  <si>
-    <t>Phimwadi</t>
-  </si>
-  <si>
-    <t>Phiraphon</t>
-  </si>
-  <si>
-    <t>Santi</t>
   </si>
   <si>
     <t>Sarayut</t>
@@ -127,8 +121,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,14 +185,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -245,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,27 +263,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,24 +297,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -522,16 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -556,13 +504,10 @@
         <v>6035512001</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -573,13 +518,10 @@
         <v>6035512002</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -590,13 +532,10 @@
         <v>6035512003</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -607,13 +546,10 @@
         <v>6035512004</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -624,13 +560,10 @@
         <v>6035512005</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -641,13 +574,13 @@
         <v>6035512006</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
       <c r="B8">
         <v>7</v>
       </c>
@@ -655,13 +588,13 @@
         <v>6035512007</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
       <c r="B9">
         <v>8</v>
       </c>
@@ -669,13 +602,13 @@
         <v>6035512008</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
       <c r="B10">
         <v>9</v>
       </c>
@@ -683,13 +616,13 @@
         <v>6035512009</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
       <c r="B11">
         <v>10</v>
       </c>
@@ -697,13 +630,13 @@
         <v>6035512010</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
       <c r="B12">
         <v>11</v>
       </c>
@@ -711,13 +644,13 @@
         <v>6035512011</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
       <c r="B13">
         <v>12</v>
       </c>
@@ -725,13 +658,13 @@
         <v>6035512012</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
       <c r="B14">
         <v>13</v>
       </c>
@@ -739,10 +672,13 @@
         <v>6035512013</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
       <c r="B15">
         <v>14</v>
       </c>
@@ -750,10 +686,13 @@
         <v>6035512014</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
       <c r="B16">
         <v>15</v>
       </c>
@@ -761,13 +700,13 @@
         <v>6035512015</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
       <c r="B17">
         <v>16</v>
       </c>
@@ -775,13 +714,13 @@
         <v>6035512016</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
       <c r="B18">
         <v>17</v>
       </c>
@@ -789,10 +728,13 @@
         <v>6035512017</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
       <c r="B19">
         <v>18</v>
       </c>
@@ -800,10 +742,13 @@
         <v>6035512018</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
       <c r="B20">
         <v>19</v>
       </c>
@@ -811,13 +756,13 @@
         <v>6035512019</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
       <c r="B21">
         <v>20</v>
       </c>
@@ -825,10 +770,13 @@
         <v>6035512020</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
       <c r="B22">
         <v>21</v>
       </c>
@@ -836,10 +784,13 @@
         <v>6035512021</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
       <c r="B23">
         <v>22</v>
       </c>
@@ -847,10 +798,13 @@
         <v>6035512022</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
       <c r="B24">
         <v>23</v>
       </c>
@@ -858,13 +812,16 @@
         <v>6035512023</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
       <c r="B25">
         <v>24</v>
       </c>
@@ -875,7 +832,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
       <c r="B26">
         <v>25</v>
       </c>
@@ -885,11 +845,11 @@
       <c r="D26" t="s">
         <v>28</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
       <c r="B27">
         <v>26</v>
       </c>
@@ -900,7 +860,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
       <c r="B28">
         <v>27</v>
       </c>
@@ -911,7 +874,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
       <c r="B29">
         <v>28</v>
       </c>
@@ -921,11 +887,11 @@
       <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
       <c r="B30">
         <v>29</v>
       </c>
@@ -936,7 +902,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
       <c r="B31">
         <v>30</v>
       </c>
